--- a/Migrade_v.1.2/media/user_3_activities.xlsx
+++ b/Migrade_v.1.2/media/user_3_activities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,330 +441,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-17 16:32:15</t>
+          <t>2024-03-20 17:37:14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eric archive a Class Record "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>eric archived the Class Record Grade 1 - JACINTO - MATHEMATICS - 1st Quarter in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-17 16:24:35</t>
+          <t>2024-03-20 17:35:49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-17 16:24:04</t>
+          <t>2024-03-20 17:35:24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-17 16:23:36</t>
+          <t>2024-03-20 17:35:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-03-17 16:23:30</t>
+          <t>2024-03-20 17:34:24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-03-17 16:23:16</t>
+          <t>2024-03-20 17:33:29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ALARIN,TRISTAN JAMES, SALVADOR in Grade 1 JACINTO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ALARIN,TRISTAN JAMES, SALVADOR in Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-03-17 16:16:17</t>
+          <t>2024-03-20 17:31:33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-03-17 16:12:15</t>
+          <t>2024-03-20 17:29:32</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-03-17 16:09:25</t>
+          <t>2024-03-20 17:28:01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-03-17 16:08:52</t>
+          <t>2024-03-20 17:28:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-03-17 15:18:37</t>
+          <t>2024-03-20 17:27:47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-03-17 15:11:09</t>
+          <t>2024-03-20 17:26:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-03-17 15:08:42</t>
+          <t>2024-03-20 17:25:50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-03-17 14:08:04</t>
+          <t>2024-03-20 17:25:21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-03-17 10:11:17</t>
+          <t>2024-03-20 17:24:54</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-03-17 09:44:12</t>
+          <t>2024-03-20 17:23:54</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-03-17 09:19:54</t>
+          <t>2024-03-20 17:22:28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-03-17 08:45:59</t>
+          <t>2024-03-20 17:19:08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-03-17 08:29:33</t>
+          <t>2024-03-20 17:18:38</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-03-17 08:09:58</t>
+          <t>2024-03-20 17:14:22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -781,24 +781,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-03-17 07:58:54</t>
+          <t>2024-03-20 17:12:16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-03-17 07:58:28</t>
+          <t>2024-03-20 17:12:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -815,24 +815,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-03-17 07:09:57</t>
+          <t>2024-03-20 17:07:07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-03-17 07:09:34</t>
+          <t>2024-03-20 17:06:19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-03-17 07:08:24</t>
+          <t>2024-03-20 17:02:26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-03-17 07:04:45</t>
+          <t>2024-03-20 17:01:40</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-03-17 07:02:39</t>
+          <t>2024-03-20 17:00:05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -900,41 +900,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-03-17 07:02:03</t>
+          <t>2024-03-20 16:55:24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-03-17 07:01:31</t>
+          <t>2024-03-20 16:49:40</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-03-17 06:56:47</t>
+          <t>2024-03-20 16:49:18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -951,24 +951,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-03-17 06:55:04</t>
+          <t>2024-03-20 16:49:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-03-17 06:54:20</t>
+          <t>2024-03-20 16:48:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-03-17 06:45:07</t>
+          <t>2024-03-20 16:43:38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1002,24 +1002,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-03-17 06:30:40</t>
+          <t>2024-03-20 16:43:18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-03-17 06:28:55</t>
+          <t>2024-03-20 16:43:04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-03-17 06:08:47</t>
+          <t>2024-03-20 16:39:33</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-03-17 06:06:59</t>
+          <t>2024-03-20 16:35:53</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1070,7 +1070,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-03-17 05:59:40</t>
+          <t>2024-03-20 16:16:58</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1087,7 +1087,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-03-17 05:39:42</t>
+          <t>2024-03-20 15:47:14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-03-17 05:34:55</t>
+          <t>2024-03-20 15:45:16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-03-17 05:33:26</t>
+          <t>2024-03-20 15:40:03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1138,1877 +1138,1877 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-03-17 05:29:52</t>
+          <t>2024-03-20 15:38:01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-03-17 05:28:41</t>
+          <t>2024-03-20 15:34:47</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-03-17 04:50:16</t>
+          <t>2024-03-20 15:34:15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-03-17 04:33:21</t>
+          <t>2024-03-20 15:29:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-03-17 04:32:40</t>
+          <t>2024-03-20 15:23:57</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-03-17 04:31:38</t>
+          <t>2024-03-20 15:23:32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-03-17 04:30:50</t>
+          <t>2024-03-20 15:22:48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-03-17 04:29:11</t>
+          <t>2024-03-20 15:09:52</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-03-17 04:28:37</t>
+          <t>2024-03-20 15:03:27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-03-17 04:28:19</t>
+          <t>2024-03-20 14:00:11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-03-16 22:50:30</t>
+          <t>2024-03-20 13:59:22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-03-16 22:50:10</t>
+          <t>2024-03-20 13:58:56</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-03-16 22:50:03</t>
+          <t>2024-03-20 13:58:49</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-03-16 22:49:57</t>
+          <t>2024-03-20 13:57:56</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-03-16 22:49:18</t>
+          <t>2024-03-20 13:57:38</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-03-16 22:49:14</t>
+          <t>2024-03-20 13:57:17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-03-16 22:49:10</t>
+          <t>2024-03-20 13:57:07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-03-16 22:47:58</t>
+          <t>2024-03-20 13:51:45</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-03-16 22:47:31</t>
+          <t>2024-03-20 13:50:23</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-03-16 22:46:36</t>
+          <t>2024-03-20 13:49:50</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-03-16 22:45:38</t>
+          <t>2024-03-20 13:47:47</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-03-16 22:39:00</t>
+          <t>2024-03-20 13:45:03</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024-03-16 22:25:24</t>
+          <t>2024-03-20 13:44:37</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-03-16 22:24:49</t>
+          <t>2024-03-20 13:44:15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-03-16 22:23:24</t>
+          <t>2024-03-20 12:12:06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-03-16 22:23:14</t>
+          <t>2024-03-20 12:11:42</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-03-16 22:22:09</t>
+          <t>2024-03-20 12:03:29</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-03-16 22:13:53</t>
+          <t>2024-03-20 12:02:45</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-03-16 22:10:07</t>
+          <t>2024-03-20 11:58:16</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-03-16 22:08:46</t>
+          <t>2024-03-20 11:54:56</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-03-16 22:08:39</t>
+          <t>2024-03-20 11:45:24</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-03-16 22:03:41</t>
+          <t>2024-03-20 11:44:27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-03-16 22:02:13</t>
+          <t>2024-03-20 10:14:46</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-03-16 22:00:00</t>
+          <t>2024-03-20 10:14:31</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-03-16 21:59:19</t>
+          <t>2024-03-20 10:12:17</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-03-16 21:13:12</t>
+          <t>2024-03-20 09:44:45</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-03-16 21:07:48</t>
+          <t>2024-03-20 09:42:17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-03-16 21:06:05</t>
+          <t>2024-03-20 09:39:15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-03-16 21:05:47</t>
+          <t>2024-03-20 09:35:29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-03-16 21:04:52</t>
+          <t>2024-03-20 09:35:29</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-03-16 21:04:04</t>
+          <t>2024-03-20 09:35:29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-03-16 21:03:47</t>
+          <t>2024-03-20 09:35:29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-03-16 21:03:38</t>
+          <t>2024-03-20 09:33:04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-03-16 21:03:01</t>
+          <t>2024-03-20 09:33:02</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-03-16 21:02:19</t>
+          <t>2024-03-20 09:33:00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-03-16 21:01:31</t>
+          <t>2024-03-20 09:32:59</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024-03-16 21:00:44</t>
+          <t>2024-03-20 09:28:20</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024-03-16 20:53:18</t>
+          <t>2024-03-20 09:27:50</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024-03-16 20:51:04</t>
+          <t>2024-03-20 09:25:40</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024-03-16 20:30:13</t>
+          <t>2024-03-20 09:22:03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024-03-16 20:30:10</t>
+          <t>2024-03-20 09:21:38</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024-03-16 20:18:50</t>
+          <t>2024-03-20 09:21:31</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024-03-16 20:10:07</t>
+          <t>2024-03-20 09:17:01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024-03-16 20:02:56</t>
+          <t>2024-03-20 09:16:36</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024-03-16 19:54:33</t>
+          <t>2024-03-20 09:16:08</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024-03-16 19:54:25</t>
+          <t>2024-03-20 09:14:16</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024-03-16 19:54:17</t>
+          <t>2024-03-20 09:11:49</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024-03-16 19:46:10</t>
+          <t>2024-03-20 09:10:20</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 1 JACINTO</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 1 JACINTO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024-03-16 19:38:11</t>
+          <t>2024-03-20 09:08:05</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024-03-16 18:54:41</t>
+          <t>2024-03-20 09:05:32</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-03-16 18:31:31</t>
+          <t>2024-03-20 09:03:45</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-03-16 15:18:49</t>
+          <t>2024-03-20 09:02:56</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-03-16 15:06:06</t>
+          <t>2024-03-20 09:01:42</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-03-16 15:04:23</t>
+          <t>2024-03-20 08:59:27</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-03-16 15:03:44</t>
+          <t>2024-03-20 08:57:51</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-03-16 14:28:17</t>
+          <t>2024-03-20 08:55:27</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-03-16 14:28:05</t>
+          <t>2024-03-20 08:53:33</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-03-16 14:27:03</t>
+          <t>2024-03-20 08:52:12</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-03-16 14:10:56</t>
+          <t>2024-03-20 08:51:20</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-03-16 14:00:28</t>
+          <t>2024-03-20 08:48:06</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (2nd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-03-16 13:59:37</t>
+          <t>2024-03-20 08:46:46</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 5 EARTH</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 5 EARTH in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-03-16 13:55:08</t>
+          <t>2024-03-20 08:40:13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-03-16 13:53:17</t>
+          <t>2024-03-20 08:33:54</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-03-15 16:38:47</t>
+          <t>2024-03-20 08:28:17</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2024-03-15 16:35:26</t>
+          <t>2024-03-20 08:27:54</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2024-03-15 16:29:14</t>
+          <t>2024-03-20 08:27:39</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2024-03-15 16:27:49</t>
+          <t>2024-03-20 08:27:26</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2024-03-15 16:25:46</t>
+          <t>2024-03-20 08:26:57</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2024-03-15 16:21:44</t>
+          <t>2024-03-20 08:25:23</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2024-03-15 16:20:55</t>
+          <t>2024-03-20 08:24:34</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2024-03-15 16:20:47</t>
+          <t>2024-03-20 08:21:46</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2024-03-15 16:20:46</t>
+          <t>2024-03-20 08:19:08</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2024-03-15 16:19:34</t>
+          <t>2024-03-20 08:10:53</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2024-03-15 16:19:05</t>
+          <t>2024-03-20 08:08:01</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2024-03-15 16:16:16</t>
+          <t>2024-03-20 07:31:25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2024-03-15 16:16:09</t>
+          <t>2024-03-20 07:19:37</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2024-03-15 16:14:11</t>
+          <t>2024-03-20 06:59:03</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2024-03-15 16:12:13</t>
+          <t>2024-03-19 16:33:32</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024-03-15 15:28:40</t>
+          <t>2024-03-19 14:15:56</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2024-03-15 14:17:11</t>
+          <t>2024-03-19 13:54:05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2024-03-15 12:26:20</t>
+          <t>2024-03-19 13:50:42</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2024-03-15 12:25:54</t>
+          <t>2024-03-19 13:49:51</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2024-03-14 17:31:38</t>
+          <t>2024-03-19 13:46:27</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2024-03-14 17:31:32</t>
+          <t>2024-03-19 13:45:46</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2024-03-14 17:31:29</t>
+          <t>2024-03-19 11:07:37</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2024-03-14 17:31:24</t>
+          <t>2024-03-19 10:05:23</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2024-03-14 17:29:10</t>
+          <t>2024-03-19 06:39:19</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2024-03-14 17:05:47</t>
+          <t>2024-03-19 04:44:20</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2024-03-14 16:36:58</t>
+          <t>2024-03-19 03:58:10</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2024-03-14 16:36:54</t>
+          <t>2024-03-18 16:04:40</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2024-03-14 14:33:29</t>
+          <t>2024-03-17 16:32:15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric archive a Class Record "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric archived the Class Record Grade 1 - JACINTO - MATHEMATICS - 1st Quarter in the system.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2024-03-14 14:33:23</t>
+          <t>2024-03-17 16:24:35</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2024-03-14 14:30:19</t>
+          <t>2024-03-17 16:24:04</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2024-03-14 14:30:14</t>
+          <t>2024-03-17 16:23:36</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2024-03-14 14:20:14</t>
+          <t>2024-03-17 16:23:30</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2024-03-14 14:20:04</t>
+          <t>2024-03-17 16:23:16</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generated an SF9 for the Student "ALARIN,TRISTAN JAMES, SALVADOR in Grade 1 JACINTO"</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ALARIN,TRISTAN JAMES, SALVADOR in Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2024-03-14 14:19:25</t>
+          <t>2024-03-17 16:16:17</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2024-03-14 14:19:20</t>
+          <t>2024-03-17 16:12:15</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2024-03-14 14:01:29</t>
+          <t>2024-03-17 16:09:25</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2024-03-14 14:01:24</t>
+          <t>2024-03-17 16:08:52</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2024-03-14 13:12:49</t>
+          <t>2024-03-17 15:18:37</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3025,7 +3025,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2024-03-14 11:32:31</t>
+          <t>2024-03-17 15:11:09</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3042,7 +3042,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2024-03-14 05:10:46</t>
+          <t>2024-03-17 15:08:42</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3059,7 +3059,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2024-03-13 14:32:34</t>
+          <t>2024-03-17 14:08:04</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3076,1690 +3076,1690 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2024-03-13 13:00:21</t>
+          <t>2024-03-17 10:11:17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2024-03-12 15:26:56</t>
+          <t>2024-03-17 09:44:12</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (3rd Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2024-03-12 10:29:18</t>
+          <t>2024-03-17 09:19:54</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2024-03-12 10:27:41</t>
+          <t>2024-03-17 08:45:59</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2024-03-12 10:17:10</t>
+          <t>2024-03-17 08:29:33</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2024-03-12 10:17:00</t>
+          <t>2024-03-17 08:09:58</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2024-03-12 10:16:58</t>
+          <t>2024-03-17 07:58:54</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (4th Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2024-03-12 10:16:55</t>
+          <t>2024-03-17 07:58:28</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2024-03-12 10:16:38</t>
+          <t>2024-03-17 07:09:57</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2024-03-10 14:25:26</t>
+          <t>2024-03-17 07:09:34</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2024-03-10 09:26:50</t>
+          <t>2024-03-17 07:08:24</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2024-03-10 03:00:21</t>
+          <t>2024-03-17 07:04:45</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2024-03-10 02:02:41</t>
+          <t>2024-03-17 07:02:39</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2024-03-10 01:23:56</t>
+          <t>2024-03-17 07:02:03</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2024-03-09 15:10:20</t>
+          <t>2024-03-17 07:01:31</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2024-03-09 15:08:42</t>
+          <t>2024-03-17 06:56:47</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2024-03-09 14:00:44</t>
+          <t>2024-03-17 06:55:04</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2024-03-09 13:58:21</t>
+          <t>2024-03-17 06:54:20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2024-03-09 13:58:15</t>
+          <t>2024-03-17 06:45:07</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2024-03-09 13:58:13</t>
+          <t>2024-03-17 06:30:40</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2024-03-09 13:57:27</t>
+          <t>2024-03-17 06:28:55</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2024-03-09 13:56:04</t>
+          <t>2024-03-17 06:08:47</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2024-03-09 13:55:58</t>
+          <t>2024-03-17 06:06:59</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2024-03-09 13:55:07</t>
+          <t>2024-03-17 05:59:40</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2024-03-09 13:53:13</t>
+          <t>2024-03-17 05:39:42</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2024-03-09 13:49:43</t>
+          <t>2024-03-17 05:34:55</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2024-03-09 13:49:19</t>
+          <t>2024-03-17 05:33:26</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2024-03-09 13:47:24</t>
+          <t>2024-03-17 05:29:52</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2024-03-09 13:46:55</t>
+          <t>2024-03-17 05:28:41</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2024-03-09 13:46:36</t>
+          <t>2024-03-17 04:50:16</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Summary of Quarterly Grades (1st Quarter) of Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2024-03-09 13:43:49</t>
+          <t>2024-03-17 04:33:21</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2024-03-09 13:41:21</t>
+          <t>2024-03-17 04:32:40</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2024-03-09 13:40:10</t>
+          <t>2024-03-17 04:31:38</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2024-03-09 13:37:50</t>
+          <t>2024-03-17 04:30:50</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2024-03-09 13:37:35</t>
+          <t>2024-03-17 04:29:11</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2024-03-09 13:37:09</t>
+          <t>2024-03-17 04:28:37</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2024-03-09 13:36:46</t>
+          <t>2024-03-17 04:28:19</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2024-03-09 13:36:19</t>
+          <t>2024-03-16 22:50:30</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2024-03-09 13:35:59</t>
+          <t>2024-03-16 22:50:10</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2024-03-09 13:33:25</t>
+          <t>2024-03-16 22:50:03</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2024-03-09 13:32:29</t>
+          <t>2024-03-16 22:49:57</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2024-03-09 13:30:25</t>
+          <t>2024-03-16 22:49:18</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter"</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 4th Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2024-03-09 13:27:21</t>
+          <t>2024-03-16 22:49:14</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 3rd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2024-03-09 13:26:55</t>
+          <t>2024-03-16 22:49:10</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2024-03-09 13:03:06</t>
+          <t>2024-03-16 22:47:58</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2024-03-09 09:24:42</t>
+          <t>2024-03-16 22:47:31</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2024-03-09 09:19:33</t>
+          <t>2024-03-16 22:46:36</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2024-03-09 09:16:46</t>
+          <t>2024-03-16 22:45:38</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2024-03-09 09:13:34</t>
+          <t>2024-03-16 22:39:00</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2024-03-09 09:09:12</t>
+          <t>2024-03-16 22:25:24</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2024-03-09 09:07:14</t>
+          <t>2024-03-16 22:24:49</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2024-03-09 09:05:20</t>
+          <t>2024-03-16 22:23:24</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2024-03-09 09:05:05</t>
+          <t>2024-03-16 22:23:14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2024-03-09 09:04:46</t>
+          <t>2024-03-16 22:22:09</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2024-03-09 09:04:13</t>
+          <t>2024-03-16 22:13:53</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2024-03-09 09:03:48</t>
+          <t>2024-03-16 22:10:07</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2024-03-09 09:03:00</t>
+          <t>2024-03-16 22:08:46</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2024-03-09 09:02:45</t>
+          <t>2024-03-16 22:08:39</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2024-03-09 09:02:26</t>
+          <t>2024-03-16 22:03:41</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2024-03-09 08:53:38</t>
+          <t>2024-03-16 22:02:13</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2024-03-09 08:52:39</t>
+          <t>2024-03-16 22:00:00</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-03-09 08:52:21</t>
+          <t>2024-03-16 21:59:19</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024-03-09 08:46:59</t>
+          <t>2024-03-16 21:13:12</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024-03-09 08:45:10</t>
+          <t>2024-03-16 21:07:48</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024-03-09 08:42:31</t>
+          <t>2024-03-16 21:06:05</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024-03-09 08:41:02</t>
+          <t>2024-03-16 21:05:47</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-03-09 08:40:23</t>
+          <t>2024-03-16 21:04:52</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024-03-09 08:38:52</t>
+          <t>2024-03-16 21:04:04</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-03-09 08:37:47</t>
+          <t>2024-03-16 21:03:47</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024-03-09 08:37:30</t>
+          <t>2024-03-16 21:03:38</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024-03-09 08:35:12</t>
+          <t>2024-03-16 21:03:01</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024-03-09 08:30:30</t>
+          <t>2024-03-16 21:02:19</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024-03-09 08:28:12</t>
+          <t>2024-03-16 21:01:31</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024-03-09 08:24:29</t>
+          <t>2024-03-16 21:00:44</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024-03-09 08:18:50</t>
+          <t>2024-03-16 20:53:18</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024-03-09 08:17:19</t>
+          <t>2024-03-16 20:51:04</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024-03-09 08:16:43</t>
+          <t>2024-03-16 20:30:13</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024-03-09 08:15:43</t>
+          <t>2024-03-16 20:30:10</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter"</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024-03-09 08:15:26</t>
+          <t>2024-03-16 20:18:50</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024-03-09 08:08:28</t>
+          <t>2024-03-16 20:10:07</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024-03-09 08:07:03</t>
+          <t>2024-03-16 20:02:56</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generate a Class Record name "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generate a Class Record named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024-03-09 08:06:52</t>
+          <t>2024-03-16 19:54:33</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024-03-09 08:06:15</t>
+          <t>2024-03-16 19:54:25</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter"</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - ARALING PANLIPUNAN - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024-03-09 08:04:05</t>
+          <t>2024-03-16 19:54:17</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter"</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric created a Classrecord named "Grade 1 - JACINTO - MATHEMATICS - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024-03-09 08:03:09</t>
+          <t>2024-03-16 19:46:10</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric create a Class Grade 1 JACINTO</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric created a Class named Grade 1 JACINTO in the system.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024-03-09 08:02:08</t>
+          <t>2024-03-16 19:38:11</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024-03-09 08:01:52</t>
+          <t>2024-03-16 18:54:41</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024-03-09 07:58:19</t>
+          <t>2024-03-16 18:31:31</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024-03-09 07:58:01</t>
+          <t>2024-03-16 15:18:49</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024-03-09 07:55:31</t>
+          <t>2024-03-16 15:06:06</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024-03-09 07:54:01</t>
+          <t>2024-03-16 15:04:23</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024-03-09 07:50:42</t>
+          <t>2024-03-16 15:03:44</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024-03-09 07:50:14</t>
+          <t>2024-03-16 14:28:17</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024-03-09 07:36:45</t>
+          <t>2024-03-16 14:28:05</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024-03-09 07:03:27</t>
+          <t>2024-03-16 14:27:03</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024-03-09 06:31:39</t>
+          <t>2024-03-16 14:10:56</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024-03-09 06:31:26</t>
+          <t>2024-03-16 14:00:28</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024-03-09 06:27:17</t>
+          <t>2024-03-16 13:59:37</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric create a Class Grade 5 EARTH</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric created a Class named Grade 5 EARTH in the system.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024-03-09 06:26:26</t>
+          <t>2024-03-16 13:55:08</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024-03-09 06:24:24</t>
+          <t>2024-03-16 13:53:17</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4776,636 +4776,636 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024-03-09 04:36:15</t>
+          <t>2024-03-15 16:38:47</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024-03-09 04:31:43</t>
+          <t>2024-03-15 16:35:26</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024-03-09 04:24:31</t>
+          <t>2024-03-15 16:29:14</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024-03-09 04:23:58</t>
+          <t>2024-03-15 16:27:49</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024-03-09 04:03:47</t>
+          <t>2024-03-15 16:25:46</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024-03-08 09:48:26</t>
+          <t>2024-03-15 16:21:44</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024-03-08 06:35:27</t>
+          <t>2024-03-15 16:20:55</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024-03-08 02:24:11</t>
+          <t>2024-03-15 16:20:47</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024-03-07 16:48:34</t>
+          <t>2024-03-15 16:20:46</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024-03-07 08:21:05</t>
+          <t>2024-03-15 16:19:34</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>eric logged in</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>eric logged in to the system.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024-03-07 06:05:57</t>
+          <t>2024-03-15 16:19:05</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024-03-07 06:05:52</t>
+          <t>2024-03-15 16:16:16</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024-03-07 06:01:13</t>
+          <t>2024-03-15 16:16:09</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024-03-07 06:01:07</t>
+          <t>2024-03-15 16:14:11</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-03-07 05:58:12</t>
+          <t>2024-03-15 16:12:13</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-03-07 05:58:07</t>
+          <t>2024-03-15 15:28:40</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-03-07 05:58:05</t>
+          <t>2024-03-15 14:17:11</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 2nd Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 2nd Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-03-07 05:58:01</t>
+          <t>2024-03-15 12:26:20</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-03-07 05:57:57</t>
+          <t>2024-03-15 12:25:54</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric logged in</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric logged in to the system.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-03-07 05:56:07</t>
+          <t>2024-03-14 17:31:38</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-03-07 05:45:52</t>
+          <t>2024-03-14 17:31:32</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-03-07 05:43:28</t>
+          <t>2024-03-14 17:31:29</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-03-07 05:41:05</t>
+          <t>2024-03-14 17:31:24</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-03-07 05:41:01</t>
+          <t>2024-03-14 17:29:10</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-03-07 05:39:02</t>
+          <t>2024-03-14 17:05:47</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-03-07 05:38:59</t>
+          <t>2024-03-14 16:36:58</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-03-07 05:36:02</t>
+          <t>2024-03-14 16:36:54</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-03-07 05:36:00</t>
+          <t>2024-03-14 14:33:29</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-03-07 05:31:20</t>
+          <t>2024-03-14 14:33:23</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-03-07 05:29:22</t>
+          <t>2024-03-14 14:30:19</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-03-07 05:25:32</t>
+          <t>2024-03-14 14:30:14</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-03-07 05:21:13</t>
+          <t>2024-03-14 14:20:14</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-03-07 05:20:15</t>
+          <t>2024-03-14 14:20:04</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-03-07 05:20:00</t>
+          <t>2024-03-14 14:19:25</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO in the system.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-03-07 05:12:25</t>
+          <t>2024-03-14 14:19:20</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 6 GALILEO</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-03-07 05:10:56</t>
+          <t>2024-03-14 14:01:29</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 6 GALILEO</t>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-03-07 05:10:45</t>
+          <t>2024-03-14 14:01:24</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>eric create a Class Grade 6 GALILEO</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-03-07 05:09:58</t>
+          <t>2024-03-14 13:12:49</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5422,15 +5422,2412 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>2024-03-14 11:32:31</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-03-14 05:10:46</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-03-13 14:32:34</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-03-13 13:00:21</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-03-12 15:26:56</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:29:18</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:27:41</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:17:10</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:17:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:16:58</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:16:55</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:16:38</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-03-10 14:25:26</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-03-10 09:26:50</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-03-10 03:00:21</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-03-10 02:02:41</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-03-10 01:23:56</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-03-09 15:10:20</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-03-09 15:08:42</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-03-09 14:00:44</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:58:21</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:58:15</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:58:13</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:57:27</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:56:04</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:55:58</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:55:07</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:53:13</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:49:43</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:49:19</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:47:24</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:46:55</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:46:36</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:43:49</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:41:21</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:40:10</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:37:50</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:37:35</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:37:09</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:36:46</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:36:19</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:35:59</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:33:25</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:32:29</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:30:25</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:27:21</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:26:55</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-03-09 13:03:06</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:24:42</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:19:33</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:16:46</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:13:34</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:09:12</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:07:14</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:05:20</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:05:05</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:04:46</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:04:13</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:03:48</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:03:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:02:45</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2024-03-09 09:02:26</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:53:38</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:52:39</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:52:21</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:46:59</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:45:10</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:42:31</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:41:02</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:40:23</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:38:52</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:37:47</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:37:30</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:35:12</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:30:30</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:28:12</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:24:29</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:18:50</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:17:19</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:16:43</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:15:43</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:15:26</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:08:28</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:07:03</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:06:52</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:06:15</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:04:05</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:03:09</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:02:08</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-03-09 08:01:52</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:58:19</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:58:01</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:55:31</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:54:01</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:50:42</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:50:14</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:36:45</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-03-09 07:03:27</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:31:39</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:31:26</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:27:17</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:26:26</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:24:24</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-03-09 04:36:15</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 4th Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-03-09 04:31:43</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 3rd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-03-09 04:24:31</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-03-09 04:23:58</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>eric create a Classrecord "Grade 6 - GALILEO - ENGLISH - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>eric created a Classrecord named "Grade 6 - GALILEO - ENGLISH - 2nd Quarter" in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-03-09 04:03:47</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:48:26</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-03-08 06:35:27</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-03-08 02:24:11</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-03-07 16:48:34</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-03-07 08:21:05</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-03-07 06:05:57</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-03-07 06:05:52</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - ENGLISH - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-03-07 06:01:13</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-03-07 06:01:07</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:58:12</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:58:07</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:58:05</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 2nd Quarter"</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 2nd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:58:01</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:57:57</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:56:07</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:45:52</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:43:28</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:41:05</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:41:01</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter"</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - EDUKASYON SA PAGPAPAKATAO - 1st Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:39:02</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:38:59</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:36:02</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter"</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 3rd Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:36:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:31:20</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:29:22</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:25:32</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter"</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>eric deleted a Classrecord named "Grade 6 - GALILEO - FILIPINO - 4th Quarter" in the system along with its GradeScores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:21:13</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:20:15</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO"</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>eric generated an SF9 for the Student "ANIBAN,LEO JELLY, TINAPAY in Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:20:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>eric generate the Summary of Final Grade and General Average of Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:12:25</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>eric create a Class Grade 6 GALILEO</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:10:56</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>eric create a Class Grade 6 GALILEO</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:10:45</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>eric create a Class Grade 6 GALILEO</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>eric created a Class named Grade 6 GALILEO in the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-03-07 05:09:58</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>eric logged in</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>eric logged in to the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
           <t>2024-03-07 05:08:50</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B436" t="inlineStr">
         <is>
           <t>eric logged in</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C436" t="inlineStr">
         <is>
           <t>eric logged in to the system.</t>
         </is>
